--- a/biology/Botanique/Dendrobium_speciosum/Dendrobium_speciosum.xlsx
+++ b/biology/Botanique/Dendrobium_speciosum/Dendrobium_speciosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrobium speciosum est une espèce d'orchidée australienne très variable, formant une espèce complexe. Ses variétés peuvent être trouvées dans des habitats très variés, plante épiphyte (poussant sur les branches des arbres de forêt tropicale) ou lithophyte (poussant dans les grès d'une forêt claire) avec une distribution continue le long de la côte est de l'Australie et des populations séparéeses au niveau du tropique du Capricorne. En touffes lithophytes, elle forme des plaques gigantesques sur les rochers et les falaises avec ses racines formant un tapis dense et feutré sur la roche. On peut la trouver du niveau de la mer au sommet des montagnes.
 Cette orchidée est très cultivée.
@@ -514,9 +526,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 août 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 août 2010) :
 Dendrobium speciosum Sm. (1804)
 variété Dendrobium speciosum var. blackdownense Peter B.Adams (2006)
 variété Dendrobium speciosum var. boreale Peter B.Adams, Jac.M.Burke &amp; S.D.Lawson (2006)
@@ -554,9 +568,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 août 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 août 2010) :
 variété Dendrobium speciosum var. blackdownense
 variété Dendrobium speciosum var. boreale
 variété Dendrobium speciosum var. capricornicum
